--- a/Kế hoạch (edited).xlsx
+++ b/Kế hoạch (edited).xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>BẢNG PHÂN CHIA CÔNG VIỆC VÀ QUÁ TRÌNH THỰC HIỆN MÔN ĐỒ ÁN 1</t>
   </si>
@@ -103,6 +104,9 @@
     <t>21/09/2018</t>
   </si>
   <si>
+    <t>thực tế: 26/9-27/9 do bị té xe</t>
+  </si>
+  <si>
     <t>QLNhanVien.cs</t>
   </si>
   <si>
@@ -127,6 +131,9 @@
     <t>24/09/2018</t>
   </si>
   <si>
+    <t>thực tế: 29/9-30/9 do frmNhanVien làm trễ</t>
+  </si>
+  <si>
     <t>frmShipper.cs</t>
   </si>
   <si>
@@ -148,6 +155,9 @@
     <t>02/10/2018.</t>
   </si>
   <si>
+    <t xml:space="preserve">thực tế: 1/10-4/10 do gặp nhiều lỗi trong quá trình làm </t>
+  </si>
+  <si>
     <t>frmHoaDon.cs</t>
   </si>
   <si>
@@ -169,6 +179,9 @@
     <t>QLKho.cs</t>
   </si>
   <si>
+    <t>thực tế: 5/10-6/10: do frmHoaDon xong trễ</t>
+  </si>
+  <si>
     <t>frmKho.cs</t>
   </si>
   <si>
@@ -178,6 +191,9 @@
     <t>BanHang.cs</t>
   </si>
   <si>
+    <t>Thực tế: 7/10-  , về cơ bản hoàn thành nhưng còn lỗi</t>
+  </si>
+  <si>
     <t>frmBanHang.cs</t>
   </si>
   <si>
@@ -193,6 +209,9 @@
     <t>7 Ngày</t>
   </si>
   <si>
+    <t>thực tế: 30/10 do máy tính hư, Hải làm</t>
+  </si>
+  <si>
     <t>Tổng Thời Gian Thực Hiện</t>
   </si>
   <si>
@@ -200,6 +219,9 @@
   </si>
   <si>
     <t>23 Ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thực tế: 10/9-30/10 </t>
   </si>
 </sst>
 </file>
@@ -207,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -219,38 +241,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1" tint="0.0499893185216834"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Segoe UI "/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI "/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sege ui"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -286,6 +276,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.0499893185216834"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Segoe UI "/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI "/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sege ui"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -293,15 +322,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,7 +347,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,38 +378,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,43 +445,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -439,6 +461,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,25 +503,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,49 +593,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,109 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,11 +726,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,17 +745,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -744,6 +761,41 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,277 +823,247 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1363,8 +1385,8 @@
   <sheetPr/>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G28"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1376,524 +1398,538 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="17.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="17.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="22.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="56.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" ht="16.5" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:8">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:8">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="8">
         <v>43382</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" ht="16.5" spans="1:8">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" ht="16.5" spans="1:8">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" ht="16.5" spans="1:8">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" ht="16.5" spans="1:8">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" ht="16.5" spans="1:8">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8">
-      <c r="A22" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23" t="s">
+      <c r="B22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="F22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" ht="16.5" spans="1:8">
-      <c r="A23" s="24"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="27" t="s">
+      <c r="G24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:8">
+      <c r="A25" s="9"/>
+      <c r="B25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="E26" s="8">
+        <v>43110</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:8">
-      <c r="A25" s="18"/>
-      <c r="B25" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27" t="s">
+      <c r="H26" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:8">
+      <c r="A27" s="9"/>
+      <c r="B27" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:8">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="17">
+      <c r="D29" s="18"/>
+      <c r="E29" s="8">
         <v>43110</v>
       </c>
-      <c r="F26" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="18" t="s">
+      <c r="F29" s="8">
+        <v>43141</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:8">
-      <c r="A27" s="18"/>
-      <c r="B27" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:8">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="27" t="s">
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:8">
+      <c r="A30" s="9"/>
+      <c r="B30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="17">
-        <v>43110</v>
-      </c>
-      <c r="F29" s="17">
+      <c r="E31" s="8">
         <v>43141</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="F31" s="8">
+        <v>43169</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:8">
-      <c r="A30" s="18"/>
-      <c r="B30" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27" t="s">
+      <c r="H31" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="9"/>
+      <c r="B32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="17">
-        <v>43141</v>
-      </c>
-      <c r="F31" s="17">
-        <v>43169</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="18"/>
-      <c r="B32" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27" t="s">
+      <c r="E33" s="8">
+        <v>43230</v>
+      </c>
+      <c r="F33" s="8">
+        <v>43291</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:8">
+      <c r="A34" s="9"/>
+      <c r="B34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" ht="16.5" spans="1:8">
+      <c r="A35" s="9"/>
+      <c r="B35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" ht="25.5" spans="1:8">
+      <c r="A36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="17">
-        <v>43230</v>
-      </c>
-      <c r="F33" s="17">
-        <v>43291</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:8">
-      <c r="A34" s="18"/>
-      <c r="B34" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:8">
-      <c r="A35" s="18"/>
-      <c r="B35" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" ht="25.5" spans="1:8">
-      <c r="A36" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17">
+      <c r="D36" s="7"/>
+      <c r="E36" s="8">
         <v>43383</v>
       </c>
-      <c r="F36" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="18"/>
+      <c r="F36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" ht="36.75" customHeight="1" spans="1:8">
-      <c r="A37" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="18"/>
+      <c r="A37" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -1984,4 +2020,561 @@
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" ht="17.25" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8">
+        <v>43382</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:8">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:8">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:8">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:8">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:8">
+      <c r="A12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:8">
+      <c r="A13" s="15"/>
+      <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:8">
+      <c r="A15" s="9"/>
+      <c r="B15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8">
+        <v>43110</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:8">
+      <c r="A17" s="9"/>
+      <c r="B17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:8">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="8">
+        <v>43110</v>
+      </c>
+      <c r="F19" s="8">
+        <v>43141</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:8">
+      <c r="A20" s="9"/>
+      <c r="B20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8">
+        <v>43141</v>
+      </c>
+      <c r="F21" s="8">
+        <v>43169</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="8">
+        <v>43230</v>
+      </c>
+      <c r="F23" s="8">
+        <v>43291</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:8">
+      <c r="A24" s="9"/>
+      <c r="B24" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:8">
+      <c r="A25" s="9"/>
+      <c r="B25" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" ht="25.5" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8">
+        <v>43383</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" ht="101.25" spans="1:8">
+      <c r="A27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>